--- a/team_specific_matrix/Jacksonville_B.xlsx
+++ b/team_specific_matrix/Jacksonville_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1951710261569417</v>
+        <v>0.1948249619482496</v>
       </c>
       <c r="C2">
-        <v>0.5432595573440644</v>
+        <v>0.5494672754946728</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.01006036217303823</v>
+        <v>0.0076103500761035</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -537,10 +537,10 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0.002012072434607646</v>
+        <v>0.0015220700152207</v>
       </c>
       <c r="P2">
-        <v>0.1348088531187123</v>
+        <v>0.1400304414003044</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.1146881287726358</v>
+        <v>0.106544901065449</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.007042253521126761</v>
+        <v>0.007874015748031496</v>
       </c>
       <c r="C3">
-        <v>0.0352112676056338</v>
+        <v>0.03674540682414698</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.03873239436619718</v>
+        <v>0.04199475065616798</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7007042253521126</v>
+        <v>0.6955380577427821</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.2183098591549296</v>
+        <v>0.2178477690288714</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.02272727272727273</v>
+        <v>0.01754385964912281</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.75</v>
+        <v>0.7017543859649122</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.2272727272727273</v>
+        <v>0.2807017543859649</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.07888040712468193</v>
+        <v>0.074</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.002544529262086514</v>
+        <v>0.006</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.04325699745547074</v>
+        <v>0.052</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.272264631043257</v>
+        <v>0.274</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.02290076335877863</v>
+        <v>0.018</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1246819338422392</v>
+        <v>0.132</v>
       </c>
       <c r="R6">
-        <v>0.0737913486005089</v>
+        <v>0.076</v>
       </c>
       <c r="S6">
-        <v>0.3816793893129771</v>
+        <v>0.368</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1111111111111111</v>
+        <v>0.1183879093198992</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.006734006734006734</v>
+        <v>0.007556675062972292</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.04713804713804714</v>
+        <v>0.04534005037783375</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1043771043771044</v>
+        <v>0.1032745591939547</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.02356902356902357</v>
+        <v>0.02015113350125945</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1851851851851852</v>
+        <v>0.1662468513853904</v>
       </c>
       <c r="R7">
-        <v>0.08754208754208755</v>
+        <v>0.09571788413098237</v>
       </c>
       <c r="S7">
-        <v>0.4343434343434344</v>
+        <v>0.4433249370277078</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.09428950863213811</v>
+        <v>0.09400826446280992</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01726427622841965</v>
+        <v>0.0134297520661157</v>
       </c>
       <c r="E8">
-        <v>0.002656042496679947</v>
+        <v>0.002066115702479339</v>
       </c>
       <c r="F8">
-        <v>0.08100929614873838</v>
+        <v>0.07541322314049587</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.09561752988047809</v>
+        <v>0.0981404958677686</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.01062416998671979</v>
+        <v>0.0134297520661157</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1832669322709163</v>
+        <v>0.1776859504132231</v>
       </c>
       <c r="R8">
-        <v>0.07569721115537849</v>
+        <v>0.07747933884297521</v>
       </c>
       <c r="S8">
-        <v>0.4395750332005312</v>
+        <v>0.4483471074380165</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1188524590163934</v>
+        <v>0.1254125412541254</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.004098360655737705</v>
+        <v>0.0033003300330033</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.06147540983606557</v>
+        <v>0.0627062706270627</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.09016393442622951</v>
+        <v>0.0924092409240924</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.01639344262295082</v>
+        <v>0.0198019801980198</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1680327868852459</v>
+        <v>0.1551155115511551</v>
       </c>
       <c r="R9">
-        <v>0.0860655737704918</v>
+        <v>0.08580858085808581</v>
       </c>
       <c r="S9">
-        <v>0.4549180327868853</v>
+        <v>0.4554455445544555</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1193548387096774</v>
+        <v>0.1233552631578947</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.01451612903225807</v>
+        <v>0.01521381578947368</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>0.0004111842105263158</v>
       </c>
       <c r="F10">
-        <v>0.07688172043010753</v>
+        <v>0.0756578947368421</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1225806451612903</v>
+        <v>0.1180098684210526</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01720430107526882</v>
+        <v>0.01685855263157895</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2026881720430108</v>
+        <v>0.1994243421052632</v>
       </c>
       <c r="R10">
-        <v>0.08225806451612903</v>
+        <v>0.07976973684210527</v>
       </c>
       <c r="S10">
-        <v>0.3645161290322581</v>
+        <v>0.3712993421052632</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.155818540433925</v>
+        <v>0.1595744680851064</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.09664694280078895</v>
+        <v>0.0911854103343465</v>
       </c>
       <c r="K11">
-        <v>0.2110453648915187</v>
+        <v>0.2051671732522796</v>
       </c>
       <c r="L11">
-        <v>0.5187376725838264</v>
+        <v>0.5273556231003039</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.01775147928994083</v>
+        <v>0.01671732522796352</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7084870848708487</v>
+        <v>0.7310924369747899</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2509225092250922</v>
+        <v>0.2240896358543417</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.01476014760147601</v>
+        <v>0.01680672268907563</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.02583025830258303</v>
+        <v>0.02801120448179272</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.639344262295082</v>
+        <v>0.6052631578947368</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2950819672131147</v>
+        <v>0.3157894736842105</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.06557377049180328</v>
+        <v>0.07894736842105263</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.03631284916201118</v>
+        <v>0.0376940133037694</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1843575418994413</v>
+        <v>0.1751662971175166</v>
       </c>
       <c r="I15">
-        <v>0.05865921787709497</v>
+        <v>0.05764966740576496</v>
       </c>
       <c r="J15">
-        <v>0.3324022346368715</v>
+        <v>0.3547671840354767</v>
       </c>
       <c r="K15">
-        <v>0.06983240223463687</v>
+        <v>0.05764966740576496</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.02793296089385475</v>
+        <v>0.0221729490022173</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.0782122905027933</v>
+        <v>0.07538802660753881</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2122905027932961</v>
+        <v>0.2195121951219512</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.03546099290780142</v>
+        <v>0.0316622691292876</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1808510638297872</v>
+        <v>0.1952506596306069</v>
       </c>
       <c r="I16">
-        <v>0.09929078014184398</v>
+        <v>0.07651715039577836</v>
       </c>
       <c r="J16">
-        <v>0.375886524822695</v>
+        <v>0.3931398416886543</v>
       </c>
       <c r="K16">
-        <v>0.08156028368794327</v>
+        <v>0.09498680738786279</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.02127659574468085</v>
+        <v>0.0237467018469657</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.03546099290780142</v>
+        <v>0.03430079155672823</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1702127659574468</v>
+        <v>0.1503957783641161</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.01990811638591118</v>
+        <v>0.01811594202898551</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1807044410413476</v>
+        <v>0.1835748792270532</v>
       </c>
       <c r="I17">
-        <v>0.06738131699846861</v>
+        <v>0.05917874396135266</v>
       </c>
       <c r="J17">
-        <v>0.3920367534456355</v>
+        <v>0.4021739130434783</v>
       </c>
       <c r="K17">
-        <v>0.1194486983154671</v>
+        <v>0.1219806763285024</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01225114854517611</v>
+        <v>0.01207729468599034</v>
       </c>
       <c r="N17">
-        <v>0.001531393568147014</v>
+        <v>0.001207729468599034</v>
       </c>
       <c r="O17">
-        <v>0.06278713629402756</v>
+        <v>0.06521739130434782</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1439509954058193</v>
+        <v>0.1364734299516908</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.02807017543859649</v>
+        <v>0.02162162162162162</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1929824561403509</v>
+        <v>0.2027027027027027</v>
       </c>
       <c r="I18">
-        <v>0.09473684210526316</v>
+        <v>0.08378378378378379</v>
       </c>
       <c r="J18">
-        <v>0.3298245614035088</v>
+        <v>0.3594594594594595</v>
       </c>
       <c r="K18">
-        <v>0.1017543859649123</v>
+        <v>0.0972972972972973</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.02105263157894737</v>
+        <v>0.02432432432432433</v>
       </c>
       <c r="N18">
-        <v>0.003508771929824561</v>
+        <v>0.002702702702702703</v>
       </c>
       <c r="O18">
-        <v>0.07368421052631578</v>
+        <v>0.06486486486486487</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1543859649122807</v>
+        <v>0.1432432432432433</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.02911208151382824</v>
+        <v>0.0291044776119403</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2270742358078603</v>
+        <v>0.2223880597014925</v>
       </c>
       <c r="I19">
-        <v>0.06162057253760311</v>
+        <v>0.06417910447761194</v>
       </c>
       <c r="J19">
-        <v>0.3396409509946628</v>
+        <v>0.3444029850746269</v>
       </c>
       <c r="K19">
-        <v>0.1149927219796215</v>
+        <v>0.1156716417910448</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.01746724890829694</v>
+        <v>0.01604477611940298</v>
       </c>
       <c r="N19">
-        <v>0.001455604075691412</v>
+        <v>0.001119402985074627</v>
       </c>
       <c r="O19">
-        <v>0.07520621057738962</v>
+        <v>0.07313432835820896</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1334303736050461</v>
+        <v>0.133955223880597</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Jacksonville_B.xlsx
+++ b/team_specific_matrix/Jacksonville_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1948249619482496</v>
+        <v>0.1966292134831461</v>
       </c>
       <c r="C2">
-        <v>0.5494672754946728</v>
+        <v>0.5533707865168539</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.0076103500761035</v>
+        <v>0.007022471910112359</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -537,10 +537,10 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0.0015220700152207</v>
+        <v>0.001404494382022472</v>
       </c>
       <c r="P2">
-        <v>0.1400304414003044</v>
+        <v>0.1404494382022472</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.106544901065449</v>
+        <v>0.101123595505618</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.007874015748031496</v>
+        <v>0.007194244604316547</v>
       </c>
       <c r="C3">
-        <v>0.03674540682414698</v>
+        <v>0.03597122302158273</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.04199475065616798</v>
+        <v>0.03836930455635491</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.6955380577427821</v>
+        <v>0.7002398081534772</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.2178477690288714</v>
+        <v>0.2182254196642686</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.01754385964912281</v>
+        <v>0.01724137931034483</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.7017543859649122</v>
+        <v>0.7068965517241379</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.2807017543859649</v>
+        <v>0.2758620689655172</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.074</v>
+        <v>0.0692167577413479</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.006</v>
+        <v>0.00546448087431694</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.052</v>
+        <v>0.05282331511839709</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.274</v>
+        <v>0.2677595628415301</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.018</v>
+        <v>0.01639344262295082</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.132</v>
+        <v>0.1347905282331512</v>
       </c>
       <c r="R6">
-        <v>0.076</v>
+        <v>0.08196721311475409</v>
       </c>
       <c r="S6">
-        <v>0.368</v>
+        <v>0.3715846994535519</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1183879093198992</v>
+        <v>0.1241379310344828</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.007556675062972292</v>
+        <v>0.009195402298850575</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.04534005037783375</v>
+        <v>0.04827586206896552</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1032745591939547</v>
+        <v>0.1011494252873563</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.02015113350125945</v>
+        <v>0.01839080459770115</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1662468513853904</v>
+        <v>0.1747126436781609</v>
       </c>
       <c r="R7">
-        <v>0.09571788413098237</v>
+        <v>0.0896551724137931</v>
       </c>
       <c r="S7">
-        <v>0.4433249370277078</v>
+        <v>0.4344827586206896</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.09400826446280992</v>
+        <v>0.09473684210526316</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.0134297520661157</v>
+        <v>0.01244019138755981</v>
       </c>
       <c r="E8">
-        <v>0.002066115702479339</v>
+        <v>0.001913875598086124</v>
       </c>
       <c r="F8">
-        <v>0.07541322314049587</v>
+        <v>0.08325358851674641</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.0981404958677686</v>
+        <v>0.09569377990430622</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.0134297520661157</v>
+        <v>0.01435406698564593</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1776859504132231</v>
+        <v>0.1779904306220096</v>
       </c>
       <c r="R8">
-        <v>0.07747933884297521</v>
+        <v>0.07751196172248803</v>
       </c>
       <c r="S8">
-        <v>0.4483471074380165</v>
+        <v>0.4421052631578947</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1254125412541254</v>
+        <v>0.1329305135951662</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.0033003300330033</v>
+        <v>0.003021148036253776</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.0627062706270627</v>
+        <v>0.05740181268882175</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.0924092409240924</v>
+        <v>0.08761329305135952</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.0198019801980198</v>
+        <v>0.02114803625377644</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1551155115511551</v>
+        <v>0.1722054380664653</v>
       </c>
       <c r="R9">
-        <v>0.08580858085808581</v>
+        <v>0.09063444108761329</v>
       </c>
       <c r="S9">
-        <v>0.4554455445544555</v>
+        <v>0.4350453172205438</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1233552631578947</v>
+        <v>0.1214775323686215</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.01521381578947368</v>
+        <v>0.01408987052551409</v>
       </c>
       <c r="E10">
-        <v>0.0004111842105263158</v>
+        <v>0.0003808073115003808</v>
       </c>
       <c r="F10">
-        <v>0.0756578947368421</v>
+        <v>0.0753998476770754</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1180098684210526</v>
+        <v>0.1153846153846154</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01685855263157895</v>
+        <v>0.01713632901751714</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.1994243421052632</v>
+        <v>0.1999238385376999</v>
       </c>
       <c r="R10">
-        <v>0.07976973684210527</v>
+        <v>0.08149276466108149</v>
       </c>
       <c r="S10">
-        <v>0.3712993421052632</v>
+        <v>0.3747143945163747</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1595744680851064</v>
+        <v>0.157103825136612</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.0911854103343465</v>
+        <v>0.09699453551912568</v>
       </c>
       <c r="K11">
-        <v>0.2051671732522796</v>
+        <v>0.2049180327868853</v>
       </c>
       <c r="L11">
-        <v>0.5273556231003039</v>
+        <v>0.5259562841530054</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.01671732522796352</v>
+        <v>0.01502732240437158</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7310924369747899</v>
+        <v>0.7265822784810126</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2240896358543417</v>
+        <v>0.2278481012658228</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.01680672268907563</v>
+        <v>0.01518987341772152</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.02801120448179272</v>
+        <v>0.03037974683544304</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.6052631578947368</v>
+        <v>0.6075949367088608</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.3157894736842105</v>
+        <v>0.3164556962025317</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.07894736842105263</v>
+        <v>0.0759493670886076</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.0376940133037694</v>
+        <v>0.03483606557377049</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1751662971175166</v>
+        <v>0.1762295081967213</v>
       </c>
       <c r="I15">
-        <v>0.05764966740576496</v>
+        <v>0.05532786885245902</v>
       </c>
       <c r="J15">
-        <v>0.3547671840354767</v>
+        <v>0.3586065573770492</v>
       </c>
       <c r="K15">
-        <v>0.05764966740576496</v>
+        <v>0.05532786885245902</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.0221729490022173</v>
+        <v>0.02049180327868852</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.07538802660753881</v>
+        <v>0.07377049180327869</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2195121951219512</v>
+        <v>0.2254098360655738</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.0316622691292876</v>
+        <v>0.0314769975786925</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1952506596306069</v>
+        <v>0.1912832929782082</v>
       </c>
       <c r="I16">
-        <v>0.07651715039577836</v>
+        <v>0.07506053268765134</v>
       </c>
       <c r="J16">
-        <v>0.3931398416886543</v>
+        <v>0.3970944309927361</v>
       </c>
       <c r="K16">
-        <v>0.09498680738786279</v>
+        <v>0.1016949152542373</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.0237467018469657</v>
+        <v>0.02179176755447942</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.03430079155672823</v>
+        <v>0.03389830508474576</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1503957783641161</v>
+        <v>0.1476997578692494</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.01811594202898551</v>
+        <v>0.01758241758241758</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1835748792270532</v>
+        <v>0.1868131868131868</v>
       </c>
       <c r="I17">
-        <v>0.05917874396135266</v>
+        <v>0.05934065934065934</v>
       </c>
       <c r="J17">
-        <v>0.4021739130434783</v>
+        <v>0.3989010989010989</v>
       </c>
       <c r="K17">
-        <v>0.1219806763285024</v>
+        <v>0.1241758241758242</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01207729468599034</v>
+        <v>0.01098901098901099</v>
       </c>
       <c r="N17">
-        <v>0.001207729468599034</v>
+        <v>0.001098901098901099</v>
       </c>
       <c r="O17">
-        <v>0.06521739130434782</v>
+        <v>0.06373626373626373</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1364734299516908</v>
+        <v>0.1373626373626374</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.02162162162162162</v>
+        <v>0.02205882352941177</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.2027027027027027</v>
+        <v>0.2058823529411765</v>
       </c>
       <c r="I18">
-        <v>0.08378378378378379</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="J18">
-        <v>0.3594594594594595</v>
+        <v>0.3553921568627451</v>
       </c>
       <c r="K18">
-        <v>0.0972972972972973</v>
+        <v>0.09313725490196079</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.02432432432432433</v>
+        <v>0.02696078431372549</v>
       </c>
       <c r="N18">
-        <v>0.002702702702702703</v>
+        <v>0.002450980392156863</v>
       </c>
       <c r="O18">
-        <v>0.06486486486486487</v>
+        <v>0.07107843137254902</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1432432432432433</v>
+        <v>0.1397058823529412</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.0291044776119403</v>
+        <v>0.02936096718480138</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2223880597014925</v>
+        <v>0.2200345423143351</v>
       </c>
       <c r="I19">
-        <v>0.06417910447761194</v>
+        <v>0.06563039723661486</v>
       </c>
       <c r="J19">
-        <v>0.3444029850746269</v>
+        <v>0.3423143350604491</v>
       </c>
       <c r="K19">
-        <v>0.1156716417910448</v>
+        <v>0.1195164075993091</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.01604477611940298</v>
+        <v>0.0155440414507772</v>
       </c>
       <c r="N19">
-        <v>0.001119402985074627</v>
+        <v>0.001036269430051813</v>
       </c>
       <c r="O19">
-        <v>0.07313432835820896</v>
+        <v>0.07253886010362694</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.133955223880597</v>
+        <v>0.1340241796200345</v>
       </c>
     </row>
   </sheetData>
